--- a/output/resultados_tasa_participacion.xlsx
+++ b/output/resultados_tasa_participacion.xlsx
@@ -9,7 +9,6 @@
   <sheets>
     <sheet name="Urbana" sheetId="1" r:id="rId1"/>
     <sheet name="Rural" sheetId="2" r:id="rId2"/>
-    <sheet name="Nacional" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -353,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -392,25 +391,10 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>cve</t>
+          <t>Costos_UPM</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>M.E.</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>M.E.R</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Costos_UPM</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Costos_Total</t>
         </is>
@@ -436,18 +420,9 @@
         <v>666</v>
       </c>
       <c r="G2">
-        <v>0.035</v>
+        <v>51999.83825372982</v>
       </c>
       <c r="H2">
-        <v>0.04</v>
-      </c>
-      <c r="I2">
-        <v>0.06900000000000001</v>
-      </c>
-      <c r="J2">
-        <v>51999.83825372982</v>
-      </c>
-      <c r="K2">
         <v>2703991.58919395</v>
       </c>
     </row>
@@ -471,18 +446,9 @@
         <v>686</v>
       </c>
       <c r="G3">
-        <v>0.035</v>
+        <v>58805.92502821844</v>
       </c>
       <c r="H3">
-        <v>0.04</v>
-      </c>
-      <c r="I3">
-        <v>0.06900000000000001</v>
-      </c>
-      <c r="J3">
-        <v>58805.92502821844</v>
-      </c>
-      <c r="K3">
         <v>2587460.701241611</v>
       </c>
     </row>
@@ -506,18 +472,9 @@
         <v>707</v>
       </c>
       <c r="G4">
-        <v>0.035</v>
+        <v>65591.01180270704</v>
       </c>
       <c r="H4">
-        <v>0.04</v>
-      </c>
-      <c r="I4">
-        <v>0.06900000000000001</v>
-      </c>
-      <c r="J4">
-        <v>65591.01180270704</v>
-      </c>
-      <c r="K4">
         <v>2558049.460305575</v>
       </c>
     </row>
@@ -541,18 +498,9 @@
         <v>727</v>
       </c>
       <c r="G5">
-        <v>0.035</v>
+        <v>72369.09857719565</v>
       </c>
       <c r="H5">
-        <v>0.04</v>
-      </c>
-      <c r="I5">
-        <v>0.06900000000000001</v>
-      </c>
-      <c r="J5">
-        <v>72369.09857719565</v>
-      </c>
-      <c r="K5">
         <v>2532918.450201848</v>
       </c>
     </row>
@@ -576,18 +524,9 @@
         <v>748</v>
       </c>
       <c r="G6">
-        <v>0.035</v>
+        <v>79140.18535168427</v>
       </c>
       <c r="H6">
-        <v>0.04</v>
-      </c>
-      <c r="I6">
-        <v>0.06900000000000001</v>
-      </c>
-      <c r="J6">
-        <v>79140.18535168427</v>
-      </c>
-      <c r="K6">
         <v>2532485.931253897</v>
       </c>
     </row>
@@ -611,18 +550,9 @@
         <v>768</v>
       </c>
       <c r="G7">
-        <v>0.035</v>
+        <v>85904.27212617287</v>
       </c>
       <c r="H7">
-        <v>0.04</v>
-      </c>
-      <c r="I7">
-        <v>0.06900000000000001</v>
-      </c>
-      <c r="J7">
-        <v>85904.27212617287</v>
-      </c>
-      <c r="K7">
         <v>2577128.163785186</v>
       </c>
     </row>
@@ -646,18 +576,9 @@
         <v>789</v>
       </c>
       <c r="G8">
-        <v>0.035</v>
+        <v>92668.35890066148</v>
       </c>
       <c r="H8">
-        <v>0.04</v>
-      </c>
-      <c r="I8">
-        <v>0.06900000000000001</v>
-      </c>
-      <c r="J8">
-        <v>92668.35890066148</v>
-      </c>
-      <c r="K8">
         <v>2594714.049218521</v>
       </c>
     </row>
@@ -681,18 +602,9 @@
         <v>809</v>
       </c>
       <c r="G9">
-        <v>0.035</v>
+        <v>99432.4456751501</v>
       </c>
       <c r="H9">
-        <v>0.04</v>
-      </c>
-      <c r="I9">
-        <v>0.06900000000000001</v>
-      </c>
-      <c r="J9">
-        <v>99432.4456751501</v>
-      </c>
-      <c r="K9">
         <v>2585243.587553903</v>
       </c>
     </row>
@@ -716,18 +628,9 @@
         <v>830</v>
       </c>
       <c r="G10">
-        <v>0.035</v>
+        <v>106189.5324496387</v>
       </c>
       <c r="H10">
-        <v>0.04</v>
-      </c>
-      <c r="I10">
-        <v>0.06900000000000001</v>
-      </c>
-      <c r="J10">
-        <v>106189.5324496387</v>
-      </c>
-      <c r="K10">
         <v>2654738.311240967</v>
       </c>
     </row>
@@ -751,18 +654,9 @@
         <v>850</v>
       </c>
       <c r="G11">
-        <v>0.035</v>
+        <v>112946.6192241273</v>
       </c>
       <c r="H11">
-        <v>0.04</v>
-      </c>
-      <c r="I11">
-        <v>0.06900000000000001</v>
-      </c>
-      <c r="J11">
-        <v>112946.6192241273</v>
-      </c>
-      <c r="K11">
         <v>2710718.861379055</v>
       </c>
     </row>
@@ -786,18 +680,9 @@
         <v>871</v>
       </c>
       <c r="G12">
-        <v>0.035</v>
+        <v>119703.7059986159</v>
       </c>
       <c r="H12">
-        <v>0.04</v>
-      </c>
-      <c r="I12">
-        <v>0.06900000000000001</v>
-      </c>
-      <c r="J12">
-        <v>119703.7059986159</v>
-      </c>
-      <c r="K12">
         <v>2753185.237968166</v>
       </c>
     </row>
@@ -808,7 +693,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -847,25 +732,10 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>cve</t>
+          <t>Costos_UPM</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>M.E.</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>M.E.R</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Costos_UPM</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Costos_Total</t>
         </is>
@@ -891,18 +761,9 @@
         <v>648</v>
       </c>
       <c r="G2">
-        <v>0.038</v>
+        <v>77554.08671086701</v>
       </c>
       <c r="H2">
-        <v>0.04</v>
-      </c>
-      <c r="I2">
-        <v>0.074</v>
-      </c>
-      <c r="J2">
-        <v>77554.08671086701</v>
-      </c>
-      <c r="K2">
         <v>4187920.682386818</v>
       </c>
     </row>
@@ -926,18 +787,9 @@
         <v>657</v>
       </c>
       <c r="G3">
-        <v>0.038</v>
+        <v>84798.9924969518</v>
       </c>
       <c r="H3">
-        <v>0.04</v>
-      </c>
-      <c r="I3">
-        <v>0.074</v>
-      </c>
-      <c r="J3">
-        <v>84798.9924969518</v>
-      </c>
-      <c r="K3">
         <v>3900753.654859783</v>
       </c>
     </row>
@@ -961,18 +813,9 @@
         <v>667</v>
       </c>
       <c r="G4">
-        <v>0.038</v>
+        <v>91951.89828303661</v>
       </c>
       <c r="H4">
-        <v>0.04</v>
-      </c>
-      <c r="I4">
-        <v>0.074</v>
-      </c>
-      <c r="J4">
-        <v>91951.89828303661</v>
-      </c>
-      <c r="K4">
         <v>3678075.931321464</v>
       </c>
     </row>
@@ -996,18 +839,9 @@
         <v>676</v>
       </c>
       <c r="G5">
-        <v>0.038</v>
+        <v>99058.80406912143</v>
       </c>
       <c r="H5">
-        <v>0.04</v>
-      </c>
-      <c r="I5">
-        <v>0.074</v>
-      </c>
-      <c r="J5">
-        <v>99058.80406912143</v>
-      </c>
-      <c r="K5">
         <v>3467058.14241925</v>
       </c>
     </row>
@@ -1031,18 +865,9 @@
         <v>685</v>
       </c>
       <c r="G6">
-        <v>0.038</v>
+        <v>106073.7098552062</v>
       </c>
       <c r="H6">
-        <v>0.04</v>
-      </c>
-      <c r="I6">
-        <v>0.074</v>
-      </c>
-      <c r="J6">
-        <v>106073.7098552062</v>
-      </c>
-      <c r="K6">
         <v>3394358.715366599</v>
       </c>
     </row>
@@ -1066,18 +891,9 @@
         <v>694</v>
       </c>
       <c r="G7">
-        <v>0.038</v>
+        <v>113088.615641291</v>
       </c>
       <c r="H7">
-        <v>0.04</v>
-      </c>
-      <c r="I7">
-        <v>0.074</v>
-      </c>
-      <c r="J7">
-        <v>113088.615641291</v>
-      </c>
-      <c r="K7">
         <v>3279569.85359744</v>
       </c>
     </row>
@@ -1101,18 +917,9 @@
         <v>704</v>
       </c>
       <c r="G8">
-        <v>0.038</v>
+        <v>120057.5214273758</v>
       </c>
       <c r="H8">
-        <v>0.04</v>
-      </c>
-      <c r="I8">
-        <v>0.074</v>
-      </c>
-      <c r="J8">
-        <v>120057.5214273758</v>
-      </c>
-      <c r="K8">
         <v>3241553.078539148</v>
       </c>
     </row>
@@ -1136,18 +943,9 @@
         <v>713</v>
       </c>
       <c r="G9">
-        <v>0.038</v>
+        <v>127026.4272134606</v>
       </c>
       <c r="H9">
-        <v>0.04</v>
-      </c>
-      <c r="I9">
-        <v>0.074</v>
-      </c>
-      <c r="J9">
-        <v>127026.4272134606</v>
-      </c>
-      <c r="K9">
         <v>3175660.680336516</v>
       </c>
     </row>
@@ -1171,18 +969,9 @@
         <v>722</v>
       </c>
       <c r="G10">
-        <v>0.038</v>
+        <v>133995.3329995454</v>
       </c>
       <c r="H10">
-        <v>0.04</v>
-      </c>
-      <c r="I10">
-        <v>0.074</v>
-      </c>
-      <c r="J10">
-        <v>133995.3329995454</v>
-      </c>
-      <c r="K10">
         <v>3081892.658989545</v>
       </c>
     </row>
@@ -1206,18 +995,9 @@
         <v>731</v>
       </c>
       <c r="G11">
-        <v>0.038</v>
+        <v>140918.2387856302</v>
       </c>
       <c r="H11">
-        <v>0.04</v>
-      </c>
-      <c r="I11">
-        <v>0.074</v>
-      </c>
-      <c r="J11">
-        <v>140918.2387856302</v>
-      </c>
-      <c r="K11">
         <v>3100201.253283865</v>
       </c>
     </row>
@@ -1241,474 +1021,10 @@
         <v>740</v>
       </c>
       <c r="G12">
-        <v>0.038</v>
+        <v>147841.1445717151</v>
       </c>
       <c r="H12">
-        <v>0.04</v>
-      </c>
-      <c r="I12">
-        <v>0.074</v>
-      </c>
-      <c r="J12">
-        <v>147841.1445717151</v>
-      </c>
-      <c r="K12">
         <v>3104664.036006016</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>HouseholdsPerPSU</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>PersonsPerPSU</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>DEFF</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>PSUinSample</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>HouseholdsInSample</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>PersonsInSample</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>cve</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>M.E.</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>M.E.R</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Costos_UPM</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Costos_Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>12.39622641509434</v>
-      </c>
-      <c r="C2">
-        <v>1.11856163340378</v>
-      </c>
-      <c r="D2">
-        <v>106</v>
-      </c>
-      <c r="E2">
-        <v>529</v>
-      </c>
-      <c r="F2">
-        <v>1314</v>
-      </c>
-      <c r="G2">
-        <v>0.025</v>
-      </c>
-      <c r="H2">
-        <v>0.028</v>
-      </c>
-      <c r="I2">
-        <v>0.049</v>
-      </c>
-      <c r="J2">
-        <v>65018.04329428255</v>
-      </c>
-      <c r="K2">
-        <v>6891912.58919395</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>14.92222222222222</v>
-      </c>
-      <c r="C3">
-        <v>1.143231004549703</v>
-      </c>
-      <c r="D3">
-        <v>90</v>
-      </c>
-      <c r="E3">
-        <v>540</v>
-      </c>
-      <c r="F3">
-        <v>1343</v>
-      </c>
-      <c r="G3">
-        <v>0.025</v>
-      </c>
-      <c r="H3">
-        <v>0.028</v>
-      </c>
-      <c r="I3">
-        <v>0.049</v>
-      </c>
-      <c r="J3">
-        <v>72091.27445824012</v>
-      </c>
-      <c r="K3">
-        <v>6488214.701241611</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>17.39240506329114</v>
-      </c>
-      <c r="C4">
-        <v>1.166921754056718</v>
-      </c>
-      <c r="D4">
-        <v>79</v>
-      </c>
-      <c r="E4">
-        <v>552</v>
-      </c>
-      <c r="F4">
-        <v>1374</v>
-      </c>
-      <c r="G4">
-        <v>0.025</v>
-      </c>
-      <c r="H4">
-        <v>0.028</v>
-      </c>
-      <c r="I4">
-        <v>0.049</v>
-      </c>
-      <c r="J4">
-        <v>78938.29696589336</v>
-      </c>
-      <c r="K4">
-        <v>6236125.460305575</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>20.04285714285714</v>
-      </c>
-      <c r="C5">
-        <v>1.191481572334405</v>
-      </c>
-      <c r="D5">
-        <v>70</v>
-      </c>
-      <c r="E5">
-        <v>564</v>
-      </c>
-      <c r="F5">
-        <v>1403</v>
-      </c>
-      <c r="G5">
-        <v>0.025</v>
-      </c>
-      <c r="H5">
-        <v>0.028</v>
-      </c>
-      <c r="I5">
-        <v>0.049</v>
-      </c>
-      <c r="J5">
-        <v>85713.94928859783</v>
-      </c>
-      <c r="K5">
-        <v>5999976.450201848</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>22.390625</v>
-      </c>
-      <c r="C6">
-        <v>1.214785175137151</v>
-      </c>
-      <c r="D6">
-        <v>64</v>
-      </c>
-      <c r="E6">
-        <v>576</v>
-      </c>
-      <c r="F6">
-        <v>1433</v>
-      </c>
-      <c r="G6">
-        <v>0.025</v>
-      </c>
-      <c r="H6">
-        <v>0.028</v>
-      </c>
-      <c r="I6">
-        <v>0.049</v>
-      </c>
-      <c r="J6">
-        <v>92606.95205084214</v>
-      </c>
-      <c r="K6">
-        <v>5926844.931253897</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>24.77966101694915</v>
-      </c>
-      <c r="C7">
-        <v>1.243581431633217</v>
-      </c>
-      <c r="D7">
-        <v>59</v>
-      </c>
-      <c r="E7">
-        <v>588</v>
-      </c>
-      <c r="F7">
-        <v>1462</v>
-      </c>
-      <c r="G7">
-        <v>0.025</v>
-      </c>
-      <c r="H7">
-        <v>0.028</v>
-      </c>
-      <c r="I7">
-        <v>0.049</v>
-      </c>
-      <c r="J7">
-        <v>99266.07057263027</v>
-      </c>
-      <c r="K7">
-        <v>5856698.163785186</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>27.14545454545454</v>
-      </c>
-      <c r="C8">
-        <v>1.262210269301138</v>
-      </c>
-      <c r="D8">
-        <v>55</v>
-      </c>
-      <c r="E8">
-        <v>600</v>
-      </c>
-      <c r="F8">
-        <v>1493</v>
-      </c>
-      <c r="G8">
-        <v>0.025</v>
-      </c>
-      <c r="H8">
-        <v>0.028</v>
-      </c>
-      <c r="I8">
-        <v>0.049</v>
-      </c>
-      <c r="J8">
-        <v>106113.9463494277</v>
-      </c>
-      <c r="K8">
-        <v>5836267.049218521</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9">
-        <v>12</v>
-      </c>
-      <c r="B9">
-        <v>29.84313725490196</v>
-      </c>
-      <c r="C9">
-        <v>1.290817115476552</v>
-      </c>
-      <c r="D9">
-        <v>51</v>
-      </c>
-      <c r="E9">
-        <v>612</v>
-      </c>
-      <c r="F9">
-        <v>1522</v>
-      </c>
-      <c r="G9">
-        <v>0.025</v>
-      </c>
-      <c r="H9">
-        <v>0.028</v>
-      </c>
-      <c r="I9">
-        <v>0.049</v>
-      </c>
-      <c r="J9">
-        <v>112958.9134814491</v>
-      </c>
-      <c r="K9">
-        <v>5760904.587553903</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10">
-        <v>13</v>
-      </c>
-      <c r="B10">
-        <v>32.33333333333334</v>
-      </c>
-      <c r="C10">
-        <v>1.309246607319126</v>
-      </c>
-      <c r="D10">
-        <v>48</v>
-      </c>
-      <c r="E10">
-        <v>623</v>
-      </c>
-      <c r="F10">
-        <v>1552</v>
-      </c>
-      <c r="G10">
-        <v>0.025</v>
-      </c>
-      <c r="H10">
-        <v>0.028</v>
-      </c>
-      <c r="I10">
-        <v>0.049</v>
-      </c>
-      <c r="J10">
-        <v>119513.1523175202</v>
-      </c>
-      <c r="K10">
-        <v>5736631.311240967</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11">
-        <v>14</v>
-      </c>
-      <c r="B11">
-        <v>34.3695652173913</v>
-      </c>
-      <c r="C11">
-        <v>1.337686614816442</v>
-      </c>
-      <c r="D11">
-        <v>46</v>
-      </c>
-      <c r="E11">
-        <v>635</v>
-      </c>
-      <c r="F11">
-        <v>1581</v>
-      </c>
-      <c r="G11">
-        <v>0.025</v>
-      </c>
-      <c r="H11">
-        <v>0.028</v>
-      </c>
-      <c r="I11">
-        <v>0.049</v>
-      </c>
-      <c r="J11">
-        <v>126324.3448125882</v>
-      </c>
-      <c r="K11">
-        <v>5810919.861379055</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12">
-        <v>15</v>
-      </c>
-      <c r="B12">
-        <v>36.61363636363637</v>
-      </c>
-      <c r="C12">
-        <v>1.35593655682926</v>
-      </c>
-      <c r="D12">
-        <v>44</v>
-      </c>
-      <c r="E12">
-        <v>647</v>
-      </c>
-      <c r="F12">
-        <v>1611</v>
-      </c>
-      <c r="G12">
-        <v>0.025</v>
-      </c>
-      <c r="H12">
-        <v>0.028</v>
-      </c>
-      <c r="I12">
-        <v>0.049</v>
-      </c>
-      <c r="J12">
-        <v>133132.9372265492</v>
-      </c>
-      <c r="K12">
-        <v>5857849.237968166</v>
       </c>
     </row>
   </sheetData>
